--- a/OneDay_0827/김밥나라 테이블명세(2021-08-27).xlsx
+++ b/OneDay_0827/김밥나라 테이블명세(2021-08-27).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TodoList" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -247,6 +247,14 @@
   </si>
   <si>
     <t>판매List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -956,7 +964,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -966,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1721,13 +1729,13 @@
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
@@ -2014,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2827,7 +2835,7 @@
         <v>48</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>18</v>
@@ -3073,12 +3081,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
